--- a/data/india/octubre_2020_India.xlsx
+++ b/data/india/octubre_2020_India.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\plastics-COVID_project\data\india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454EBF33-8CAE-491A-92BC-E5A351151B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D7D05-1782-4DF1-BA1E-637FCE358CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25BF9935-BD75-4640-B635-F771B6BEA5E2}"/>
+    <workbookView xWindow="18555" yWindow="4500" windowWidth="21600" windowHeight="11385" xr2:uid="{25BF9935-BD75-4640-B635-F771B6BEA5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>S.No.</t>
   </si>
@@ -48,24 +48,15 @@
     <t>No. of CBWTFs engaged</t>
   </si>
   <si>
-    <t>0.434</t>
-  </si>
-  <si>
     <t>Assam</t>
   </si>
   <si>
     <t>Bihar</t>
   </si>
   <si>
-    <t>44.64</t>
-  </si>
-  <si>
     <t>Chandigarh</t>
   </si>
   <si>
-    <t>9.61</t>
-  </si>
-  <si>
     <t>Daman &amp; Diu</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Goa</t>
   </si>
   <si>
-    <t>7.75</t>
-  </si>
-  <si>
     <t>Gujarat</t>
   </si>
   <si>
@@ -87,18 +75,12 @@
     <t>Himachal Pradesh</t>
   </si>
   <si>
-    <t>4.96</t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
     <t>Kerala</t>
   </si>
   <si>
-    <t>0.31</t>
-  </si>
-  <si>
     <t>Madhya Pradesh</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>Telangana</t>
   </si>
   <si>
-    <t>0.465</t>
-  </si>
-  <si>
     <t>Uttarakhand</t>
   </si>
   <si>
@@ -172,6 +151,9 @@
   </si>
   <si>
     <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -236,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC00D83-BDA3-4266-9ECC-C28E6F251F0C}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,12 +570,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.434</v>
+      </c>
+      <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
@@ -604,12 +586,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6">
-        <v>116095</v>
-      </c>
-      <c r="D3" s="5">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <v>116.095</v>
+      </c>
+      <c r="D3" s="7">
         <v>11</v>
       </c>
       <c r="E3" s="4"/>
@@ -620,12 +602,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3472</v>
-      </c>
-      <c r="D4" s="5">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.472</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
@@ -636,12 +618,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>51739</v>
-      </c>
-      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>51.738999999999997</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
@@ -652,12 +634,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44.64</v>
+      </c>
+      <c r="D6" s="7">
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
@@ -668,12 +650,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>73191</v>
-      </c>
-      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>73.191000000000003</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
@@ -684,12 +666,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.61</v>
+      </c>
+      <c r="D8" s="7">
         <v>4</v>
       </c>
       <c r="E8" s="4"/>
@@ -700,12 +682,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2387</v>
-      </c>
-      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.387</v>
+      </c>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
@@ -716,12 +698,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <v>365893</v>
-      </c>
-      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>365.89299999999997</v>
+      </c>
+      <c r="D10" s="7">
         <v>2</v>
       </c>
       <c r="E10" s="4"/>
@@ -732,12 +714,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7.75</v>
+      </c>
+      <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
@@ -748,12 +730,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6">
-        <v>545879</v>
-      </c>
-      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>545.87900000000002</v>
+      </c>
+      <c r="D12" s="7">
         <v>20</v>
       </c>
       <c r="E12" s="4"/>
@@ -764,12 +746,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>238452</v>
-      </c>
-      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>238.452</v>
+      </c>
+      <c r="D13" s="7">
         <v>11</v>
       </c>
       <c r="E13" s="4"/>
@@ -783,12 +765,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6">
-        <v>28117</v>
-      </c>
-      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>28.117000000000001</v>
+      </c>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="4"/>
@@ -802,12 +784,12 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6">
-        <v>59303</v>
-      </c>
-      <c r="D15" s="5">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7">
+        <v>59.302999999999997</v>
+      </c>
+      <c r="D15" s="7">
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
@@ -821,12 +803,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
       <c r="E16" s="4"/>
@@ -840,12 +822,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6">
-        <v>218023</v>
-      </c>
-      <c r="D17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>218.023</v>
+      </c>
+      <c r="D17" s="7">
         <v>26</v>
       </c>
       <c r="E17" s="4"/>
@@ -859,12 +841,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6">
-        <v>641979</v>
-      </c>
-      <c r="D18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <v>641.97900000000004</v>
+      </c>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
@@ -878,12 +860,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="4"/>
@@ -897,12 +879,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6">
-        <v>308419</v>
-      </c>
-      <c r="D20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>308.41899999999998</v>
+      </c>
+      <c r="D20" s="7">
         <v>13</v>
       </c>
       <c r="E20" s="4"/>
@@ -916,12 +898,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6">
-        <v>542314</v>
-      </c>
-      <c r="D21" s="5">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7">
+        <v>542.31399999999996</v>
+      </c>
+      <c r="D21" s="7">
         <v>29</v>
       </c>
       <c r="E21" s="4"/>
@@ -935,12 +917,12 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5301</v>
-      </c>
-      <c r="D22" s="5">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
@@ -954,12 +936,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6">
-        <v>12028</v>
-      </c>
-      <c r="D23" s="5">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12.028</v>
+      </c>
+      <c r="D23" s="7">
         <v>2</v>
       </c>
       <c r="E23" s="4"/>
@@ -973,12 +955,12 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3224</v>
-      </c>
-      <c r="D24" s="5">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="4"/>
@@ -992,12 +974,12 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3317</v>
-      </c>
-      <c r="D25" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3.3170000000000002</v>
+      </c>
+      <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="4"/>
@@ -1011,12 +993,12 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6">
-        <v>183458</v>
-      </c>
-      <c r="D26" s="5">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>183.458</v>
+      </c>
+      <c r="D26" s="7">
         <v>5</v>
       </c>
       <c r="E26" s="4"/>
@@ -1030,12 +1012,12 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6">
-        <v>58652</v>
-      </c>
-      <c r="D27" s="5">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <v>58.652000000000001</v>
+      </c>
+      <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
@@ -1049,12 +1031,12 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6">
-        <v>149606</v>
-      </c>
-      <c r="D28" s="5">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>149.60599999999999</v>
+      </c>
+      <c r="D28" s="7">
         <v>5</v>
       </c>
       <c r="E28" s="4"/>
@@ -1068,12 +1050,12 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6">
-        <v>171554</v>
-      </c>
-      <c r="D29" s="5">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>171.554</v>
+      </c>
+      <c r="D29" s="7">
         <v>8</v>
       </c>
       <c r="E29" s="4"/>
@@ -1087,12 +1069,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="6">
-        <v>4216</v>
-      </c>
-      <c r="D30" s="5">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.2160000000000002</v>
+      </c>
+      <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30" s="4"/>
@@ -1106,12 +1088,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6">
-        <v>524179</v>
-      </c>
-      <c r="D31" s="5">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7">
+        <v>524.17899999999997</v>
+      </c>
+      <c r="D31" s="7">
         <v>8</v>
       </c>
       <c r="E31" s="4"/>
@@ -1125,12 +1107,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6">
-        <v>144801</v>
-      </c>
-      <c r="D32" s="5">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7">
+        <v>144.80099999999999</v>
+      </c>
+      <c r="D32" s="7">
         <v>11</v>
       </c>
       <c r="E32" s="4"/>
@@ -1144,12 +1126,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D33" s="7">
         <v>0</v>
       </c>
       <c r="E33" s="4"/>
@@ -1163,12 +1145,12 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6">
-        <v>108996</v>
-      </c>
-      <c r="D34" s="5">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7">
+        <v>108.996</v>
+      </c>
+      <c r="D34" s="7">
         <v>2</v>
       </c>
       <c r="E34" s="4"/>
@@ -1182,12 +1164,12 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="6">
-        <v>478082</v>
-      </c>
-      <c r="D35" s="5">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7">
+        <v>478.08199999999999</v>
+      </c>
+      <c r="D35" s="7">
         <v>18</v>
       </c>
       <c r="E35" s="4"/>
@@ -1201,12 +1183,12 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="6">
-        <v>486793</v>
-      </c>
-      <c r="D36" s="5">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7">
+        <v>486.79300000000001</v>
+      </c>
+      <c r="D36" s="7">
         <v>6</v>
       </c>
       <c r="E36" s="4"/>
@@ -1217,9 +1199,15 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5597</v>
+      </c>
+      <c r="D37" s="5">
+        <v>198</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
